--- a/target/classes/com/crm/testdata/crmTestData.xlsx
+++ b/target/classes/com/crm/testdata/crmTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>firstname</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Raj</t>
   </si>
   <si>
-    <t>Kumar</t>
-  </si>
-  <si>
     <t>raj@gmail.com</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Rupesh</t>
   </si>
   <si>
-    <t>Singh</t>
-  </si>
-  <si>
     <t>rupesh@gmail.com</t>
   </si>
   <si>
@@ -67,6 +61,9 @@
   </si>
   <si>
     <t>Rupesh123$</t>
+  </si>
+  <si>
+    <t>kumar</t>
   </si>
 </sst>
 </file>
@@ -419,12 +416,13 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -459,45 +457,45 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>746</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
